--- a/monster-maker-academy/checklist.xlsx
+++ b/monster-maker-academy/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/monster-maker-academy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{828CDB0F-B591-B042-9702-9DDA9487D112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427AC76C-D045-9346-91CF-0BFF7EE67CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{EB9E21BD-616A-3943-8FDE-DCB570B0F714}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Monster Maker Academy</t>
+  </si>
+  <si>
+    <t>replay.jpg</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>黒き旋風の美姫</t>
+  </si>
+  <si>
+    <t>Beautiful Maiden of the Black Whirlwind</t>
   </si>
 </sst>
 </file>
@@ -418,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E941F00-8D58-2346-B9AA-DF4CED5A78F3}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -470,6 +482,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
